--- a/test/01-horizontal-range-index.xlsx
+++ b/test/01-horizontal-range-index.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D6C71C-2006-45F8-B136-E59EDAD64BD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HORIZONTAL_RANGE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autore</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,12 +54,8 @@
 </comments>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,7 +396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
